--- a/public/assets/template/question-template.xlsx
+++ b/public/assets/template/question-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\mooc\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF76A56-F274-4B5F-A037-7D77E8500A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586FEEDF-D878-4B71-8CAD-362F17622598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Operational</t>
-  </si>
-  <si>
     <t>Technical</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Quest 5</t>
+  </si>
+  <si>
+    <t>Organisational</t>
   </si>
 </sst>
 </file>
@@ -483,13 +483,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,10 +542,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,10 +564,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template/question-template.xlsx
+++ b/public/assets/template/question-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\mooc\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586FEEDF-D878-4B71-8CAD-362F17622598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553DB62-9B0E-44C3-88E0-35438525D8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -60,22 +60,109 @@
     <t>Software</t>
   </si>
   <si>
-    <t>Quest 1</t>
-  </si>
-  <si>
-    <t>Quest 2</t>
-  </si>
-  <si>
-    <t>Quest 3</t>
-  </si>
-  <si>
-    <t>Quest 4</t>
-  </si>
-  <si>
-    <t>Quest 5</t>
-  </si>
-  <si>
     <t>Organisational</t>
+  </si>
+  <si>
+    <t>The extent of the institution's commitment to the quality of learning delivered in MOOCs?</t>
+  </si>
+  <si>
+    <t>Do you feel that the policy allows you to utilize the learning outcomes of the MOOCs in accordance with your expectations?</t>
+  </si>
+  <si>
+    <t>How cost-effective is it in achieving learning outcomes?</t>
+  </si>
+  <si>
+    <t>Do MOOCs utilize sustainable technology and can influence education?</t>
+  </si>
+  <si>
+    <t>Does the MOOCs have official accreditation from an educational institution?</t>
+  </si>
+  <si>
+    <t>How does the MOOCs present educational materials and manage user activities during interaction with the system?</t>
+  </si>
+  <si>
+    <t>Does the learning video include interactive quizzes or questions to test student understanding?</t>
+  </si>
+  <si>
+    <t>Can MOOCs be integrated with education administration systems such as class management, and assessment?</t>
+  </si>
+  <si>
+    <t>Do students feel more motivated and supported through social interaction in MOOCs?</t>
+  </si>
+  <si>
+    <t>How effective is the communication that MOOCs provide for discussion between students?</t>
+  </si>
+  <si>
+    <t>How often do students interact and collaborate in group work or assigned projects?</t>
+  </si>
+  <si>
+    <t>How often do students participate in discussions and answer questions?</t>
+  </si>
+  <si>
+    <t>How effective are MOOCs in facilitating networking events or virtual meetings?</t>
+  </si>
+  <si>
+    <t>How easily can students share learning materials or information with fellow students?</t>
+  </si>
+  <si>
+    <t>Are the learning objectives in the MOOC clear and easy to understand?</t>
+  </si>
+  <si>
+    <t>Do the teaching methods, such as videos, readings, assignments, and discussions, help you understand the material well?</t>
+  </si>
+  <si>
+    <t>Are the theories or concepts taught appropriate to the learning objectives and relevant to the subject area?</t>
+  </si>
+  <si>
+    <t>To what extent can the learning process implemented by MOOCs help understand basic to more complex material?</t>
+  </si>
+  <si>
+    <t>How compatible is this type of MOOC with the learning style and needs of educational institutions?</t>
+  </si>
+  <si>
+    <t>Does Mooc take into account the different backgrounds, needs, and skill levels of students?</t>
+  </si>
+  <si>
+    <t>What is the institution's ability to evaluate various aspects of the desired output?</t>
+  </si>
+  <si>
+    <t>Is the interface of this System MOOC easy to use?</t>
+  </si>
+  <si>
+    <t>How well is the software system able to fulfill the functions required by the students?</t>
+  </si>
+  <si>
+    <t>What is the MOOC system's ability to meet timing requirements, such as how many transactions can be processed in one minute?</t>
+  </si>
+  <si>
+    <t>Does the software integrate well with other systems and tools you use?</t>
+  </si>
+  <si>
+    <t>Is technical support for this software available and helpful?</t>
+  </si>
+  <si>
+    <t>How accurate is the output produced by the MOOC system?</t>
+  </si>
+  <si>
+    <t>How efficiently is feedback or assessment delivered after students have completed assignments or quizzes?</t>
+  </si>
+  <si>
+    <t>Can the capabilities of the MOOC system change according to the changing needs of students?</t>
+  </si>
+  <si>
+    <t>Can the system exchange necessary information through interfaces with the different systems operating within the organization?</t>
+  </si>
+  <si>
+    <t>Can the product be maintained and developed at a low cost?</t>
+  </si>
+  <si>
+    <t>How good is the system's ability to transform products according to student needs?</t>
+  </si>
+  <si>
+    <t>What is the process of moving the system to another environment?</t>
+  </si>
+  <si>
+    <t>How reliable is the system in avoiding failures while operating and meeting needs, even in difficult situations?</t>
   </si>
 </sst>
 </file>
@@ -155,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +252,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,17 +573,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86521A1-DC6B-4F40-AA0D-147BEF52CF9B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
@@ -516,58 +609,377 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
